--- a/Practicas/pract van tir 16 oct.xlsx
+++ b/Practicas/pract van tir 16 oct.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub Repositorio\2020_Economia_HernanRRD\Practicas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{260BBD9D-1BFA-4F21-8493-6C4E48B85EEC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AE47405-B3A1-4E33-874E-3733C280E0E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -774,8 +774,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:Q43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C48" sqref="C48:D48"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1342,7 +1342,7 @@
         <v>39</v>
       </c>
       <c r="C34" s="4">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="D34" s="31"/>
       <c r="E34" s="4">
